--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2910033.959189888</v>
+        <v>2991704.45652483</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261949</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8871013.811986016</v>
+        <v>8871003.220346978</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516666</v>
+        <v>173.3217671684648</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>133.163010197348</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.83502657047841</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>199.5737649856244</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>172.8415595021183</v>
       </c>
       <c r="F5" t="n">
-        <v>28.73185079616043</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77699516265576</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>148.7155829856514</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>61.22929403929142</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.7116279466329</v>
+        <v>80.69052336281879</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078369</v>
+        <v>84.45800155129677</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463152</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.01397506164325</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>64.00137801481752</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>132.6301997610083</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,10 +1183,10 @@
         <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.9105741582249</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174145</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.84409370098927</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.34516675270174</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>120.457437984043</v>
+        <v>207.423117568314</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>10.34713777957373</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.31583361796027</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,10 +2137,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>118.6381055895285</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.4766145625744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113181</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.8084418793353</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.287249111318</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274162</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>191.2952934418166</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>66.14085215535898</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>89.75370286975867</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>123.0388562607478</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>24.29718497126847</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>111.995942466398</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>179.5367198203487</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.5524838712628</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="C2" t="n">
-        <v>432.5524838712628</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="D2" t="n">
-        <v>432.5524838712628</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="E2" t="n">
-        <v>432.5524838712628</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="F2" t="n">
-        <v>425.6069831220594</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="G2" t="n">
-        <v>159.7059387264366</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>159.7059387264366</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>698.4535282668857</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>698.4535282668857</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>698.4535282668857</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>698.4535282668857</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="X2" t="n">
-        <v>698.4535282668857</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="Y2" t="n">
-        <v>698.4535282668857</v>
+        <v>683.2303018926189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.00383399944485</v>
+        <v>396.859696161287</v>
       </c>
       <c r="C3" t="n">
-        <v>32.00383399944485</v>
+        <v>222.40666688016</v>
       </c>
       <c r="D3" t="n">
-        <v>32.00383399944485</v>
+        <v>222.40666688016</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.40666688016</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683209</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516946</v>
+        <v>367.8501726635175</v>
       </c>
       <c r="M3" t="n">
-        <v>456.2953932224767</v>
+        <v>367.8501726635175</v>
       </c>
       <c r="N3" t="n">
-        <v>716.9050068346266</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271187</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>850.9830782217423</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U3" t="n">
-        <v>850.9830782217423</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V3" t="n">
-        <v>615.8309699899996</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="W3" t="n">
-        <v>615.8309699899996</v>
+        <v>604.7111963668199</v>
       </c>
       <c r="X3" t="n">
-        <v>407.9794697844668</v>
+        <v>396.859696161287</v>
       </c>
       <c r="Y3" t="n">
-        <v>200.2191710195129</v>
+        <v>396.859696161287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433.2056150696123</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="C5" t="n">
-        <v>433.2056150696123</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="D5" t="n">
-        <v>74.93991646286185</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="E5" t="n">
-        <v>74.93991646286185</v>
+        <v>1313.571089545166</v>
       </c>
       <c r="F5" t="n">
-        <v>45.91784495158868</v>
+        <v>937.7734826295875</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153236</v>
+        <v>561.9758757140094</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153236</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931802</v>
+        <v>57.64391735380411</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817365</v>
+        <v>220.1747338456881</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923825</v>
+        <v>474.085211203998</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365685</v>
+        <v>773.2160860494166</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029482</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245513</v>
+        <v>1290.582309293129</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927382</v>
+        <v>1447.523776935881</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="T5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="U5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="V5" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="W5" t="n">
-        <v>1196.810705306504</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="X5" t="n">
-        <v>823.3449470454241</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="Y5" t="n">
-        <v>433.2056150696123</v>
+        <v>1488.158523385689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628.062577513904</v>
+        <v>569.65837488035</v>
       </c>
       <c r="C6" t="n">
-        <v>628.062577513904</v>
+        <v>419.440614288783</v>
       </c>
       <c r="D6" t="n">
-        <v>479.1281678526527</v>
+        <v>270.5062046275317</v>
       </c>
       <c r="E6" t="n">
-        <v>319.8907128471972</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>173.3561548740822</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>56.5630915752726</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170045</v>
+        <v>158.8871637913174</v>
       </c>
       <c r="L6" t="n">
-        <v>517.3192611265166</v>
+        <v>443.2051729374537</v>
       </c>
       <c r="M6" t="n">
-        <v>900.8401528692295</v>
+        <v>811.5244074754117</v>
       </c>
       <c r="N6" t="n">
-        <v>1284.361044611942</v>
+        <v>1179.84364201337</v>
       </c>
       <c r="O6" t="n">
-        <v>1313.757655433463</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576618</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697039</v>
+        <v>1402.847410707612</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.911733212592</v>
+        <v>1234.17437210748</v>
       </c>
       <c r="T6" t="n">
-        <v>1297.911733212592</v>
+        <v>1033.017297458528</v>
       </c>
       <c r="U6" t="n">
-        <v>1297.911733212592</v>
+        <v>804.8104831120927</v>
       </c>
       <c r="V6" t="n">
-        <v>1297.911733212592</v>
+        <v>569.65837488035</v>
       </c>
       <c r="W6" t="n">
-        <v>1043.674376484391</v>
+        <v>569.65837488035</v>
       </c>
       <c r="X6" t="n">
-        <v>835.8228762788578</v>
+        <v>569.65837488035</v>
       </c>
       <c r="Y6" t="n">
-        <v>628.062577513904</v>
+        <v>569.65837488035</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177033</v>
+        <v>32.09990175888161</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391485</v>
+        <v>90.61654790611276</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004511</v>
+        <v>162.7032697236689</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454189</v>
+        <v>238.5105468400022</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451036</v>
+        <v>292.5145415057947</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179081</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="Q7" t="n">
-        <v>269.0962644344419</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="R7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="S7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="T7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="U7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="V7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="W7" t="n">
-        <v>258.9811381095497</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="X7" t="n">
-        <v>30.99158721153236</v>
+        <v>250.5557496112439</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153236</v>
+        <v>29.76317046771378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910852</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252749</v>
@@ -4805,19 +4807,19 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424005</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610018</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551149</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5063,19 +5065,19 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.7517393246783</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="W13" t="n">
-        <v>397.7517393246783</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="X13" t="n">
-        <v>397.7517393246783</v>
+        <v>929.7860569443444</v>
       </c>
       <c r="Y13" t="n">
-        <v>397.7517393246783</v>
+        <v>708.9934778008143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141295</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.7003690904323</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>1011.48249913198</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="X16" t="n">
-        <v>783.4929482339625</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.7003690904323</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5494,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.91112712663</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>444.7802503911739</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C19" t="n">
-        <v>275.844067463267</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>275.844067463267</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>275.844067463267</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1458.193206297336</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1258.273196212889</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1034.487781002395</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>1034.487781002395</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262961</v>
+        <v>1034.487781002395</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.210845262961</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649438</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y19" t="n">
-        <v>626.4287152214137</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,22 +5749,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,16 +5773,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465302</v>
@@ -5789,7 +5791,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5835,16 +5837,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365137</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861032</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1155.294385054956</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765191</v>
+        <v>900.6098968490687</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765191</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="X22" t="n">
-        <v>786.0822064765191</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163429</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6148,10 +6150,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,22 +6241,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465302</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.4905621634935</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>388.5543792355866</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>238.4377398232508</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>238.4377398232508</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.921157035281</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.921157035281</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9316061372633</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.1390269937332</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6448,52 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155901</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805482</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465303</v>
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093322</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1305.688701424755</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>1077.699150526737</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>856.9065713832074</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471239</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057541</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851654</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814693</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870662</v>
+        <v>3868.868522185968</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9038434870662</v>
+        <v>3699.932339258061</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9038434870662</v>
+        <v>3549.815699845726</v>
       </c>
       <c r="E37" t="n">
-        <v>216.9038434870662</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>216.9038434870662</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>216.9038434870662</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655742</v>
+        <v>4271.309566159738</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286137</v>
+        <v>4271.309566159738</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305963</v>
+        <v>4271.309566159738</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870662</v>
+        <v>4050.516987016208</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7153,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,25 +7195,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528587</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7433,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7478,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365137</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216475</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O42" t="n">
         <v>2016.139981183167</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>834.5937666237588</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>506.8551071885429</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>1016.242231453999</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7672,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>154.3878371814092</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365137</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216475</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2811958984813</v>
+        <v>527.1935825831091</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>358.2573996552022</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>358.2573996552022</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>210.3443060728091</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>210.3443060728091</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>1206.490945078972</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W46" t="n">
-        <v>917.0737750420114</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X46" t="n">
-        <v>917.0737750420114</v>
+        <v>527.1935825831091</v>
       </c>
       <c r="Y46" t="n">
-        <v>696.2811958984813</v>
+        <v>527.1935825831091</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>326.290550270498</v>
       </c>
       <c r="M3" t="n">
-        <v>322.2601090150739</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>227.4375070280237</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184956</v>
+        <v>450.1033532835735</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009045</v>
+        <v>437.615280947046</v>
       </c>
       <c r="O6" t="n">
-        <v>105.3620886817108</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.6882169793615</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817183</v>
+        <v>107.7037345247341</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415606</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907245</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165105</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978166</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498446</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>104.8749102765738</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>15.83804904622793</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498446</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.7034673574</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>264.1778315838893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>166.065560352548</v>
+        <v>79.09988076827696</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.0739102433575</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>69.64851878583252</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>167.5992468090489</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.10803878952038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>48.00368395686506</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>5.61260614359594</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>95.22770489477438</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>131.7799578282443</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338389</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>56.6802597768105</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>30.42394386102357</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>44.20796483788006</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2258133653226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>54.49762599697959</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>72.60092350347927</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796751.0767876754</v>
+        <v>796774.9928928342</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>797034.9780864442</v>
+        <v>796999.0900324803</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757213.0894325103</v>
+        <v>757213.0894325102</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="J2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803342</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300984</v>
+        <v>106137.151770384</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133504</v>
+        <v>316711.9424252104</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414818</v>
+        <v>24677.24609313421</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179905</v>
+        <v>76496.15793817135</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287707.9213319438</v>
+        <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>247985.9969236121</v>
+        <v>252867.8426256214</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26427,10 +26429,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26444,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683333</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267168</v>
+        <v>58810.42201485716</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208596.6322777</v>
+        <v>196002.3495344506</v>
       </c>
       <c r="C6" t="n">
-        <v>210574.0615150449</v>
+        <v>239017.9994805641</v>
       </c>
       <c r="D6" t="n">
-        <v>116577.4821634442</v>
+        <v>100487.4371515845</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466718157</v>
+        <v>-6546.536466718477</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.5000101787</v>
+        <v>518613.5000101785</v>
       </c>
       <c r="G6" t="n">
+        <v>518613.5000101783</v>
+      </c>
+      <c r="H6" t="n">
+        <v>518613.5000101781</v>
+      </c>
+      <c r="I6" t="n">
         <v>518613.5000101784</v>
       </c>
-      <c r="H6" t="n">
-        <v>518613.5000101785</v>
-      </c>
-      <c r="I6" t="n">
-        <v>518613.5000101786</v>
-      </c>
       <c r="J6" t="n">
-        <v>449737.8012789284</v>
+        <v>446358.8051390391</v>
       </c>
       <c r="K6" t="n">
-        <v>486660.5405860304</v>
+        <v>493936.2539170442</v>
       </c>
       <c r="L6" t="n">
-        <v>446003.6073483794</v>
+        <v>442117.3420720066</v>
       </c>
       <c r="M6" t="n">
-        <v>383812.4847763416</v>
+        <v>383812.4847763409</v>
       </c>
       <c r="N6" t="n">
-        <v>518613.5000101783</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="O6" t="n">
-        <v>518613.5000101787</v>
+        <v>518613.5000101784</v>
       </c>
       <c r="P6" t="n">
         <v>518613.5000101785</v>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792243</v>
+        <v>117.5602045593892</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441545</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>107.765027492435</v>
+        <v>82.53894384026385</v>
       </c>
       <c r="D3" t="n">
-        <v>246.965254037862</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370142</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924879</v>
+        <v>95.8831171440669</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104011</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924877</v>
+        <v>95.8831171440669</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104012</v>
+        <v>302.2476419081332</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924879</v>
+        <v>95.8831171440669</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104011</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>241.8401813588546</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>73.74615199202293</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8100538849225</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>52.12121817529518</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>7.411751991653006</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>209.0888105701435</v>
       </c>
       <c r="F5" t="n">
-        <v>378.144194945551</v>
+        <v>34.83641489528912</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.79050283128806</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>120.1819171385216</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>23.99291600266434</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>75.83292616617521</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,22 +27748,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537395</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.1304301278448</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300348</v>
+        <v>78.37121764358476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322663</v>
       </c>
       <c r="R7" t="n">
-        <v>156.6756455491911</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039629</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>161.7082773742196</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>281.1539702597867</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>259.3273644978287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>17.4093378501662</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,16 +28061,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29937,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4.524736141320318e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792934</v>
+        <v>0.4726038374246798</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328565</v>
+        <v>4.840054050025503</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395798</v>
+        <v>18.22005944231498</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873947</v>
+        <v>40.11165994662295</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918797</v>
+        <v>60.11698038480966</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887616</v>
+        <v>74.58043007439521</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977979</v>
+        <v>82.98509856819636</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876159</v>
+        <v>84.32788422127923</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129561</v>
+        <v>79.62842981288757</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446304</v>
+        <v>67.96102257646578</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629833</v>
+        <v>51.03589764869442</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892744</v>
+        <v>29.68720080262807</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712191</v>
+        <v>10.7694599453149</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978108</v>
+        <v>2.068823298326537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834346</v>
+        <v>0.03780830699397437</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439919</v>
+        <v>0.2528653456560447</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685396</v>
+        <v>2.442146890941274</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782181</v>
+        <v>8.706109488596276</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387426</v>
+        <v>23.89022987182833</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272172</v>
+        <v>40.83220803078332</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945756</v>
+        <v>54.90394270483549</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767724</v>
+        <v>64.07031148486709</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658325</v>
+        <v>65.76606198270962</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709794</v>
+        <v>60.16309827106778</v>
       </c>
       <c r="P6" t="n">
-        <v>53.7153813432365</v>
+        <v>48.28619043496874</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430325</v>
+        <v>32.27803956128739</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185944</v>
+        <v>15.69983260134636</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235987</v>
+        <v>4.696862889707669</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082143</v>
+        <v>1.019224792359232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894685</v>
+        <v>0.01663587800368715</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953225</v>
+        <v>0.2119938115005378</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594778</v>
+        <v>1.884817705886601</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768429</v>
+        <v>6.37523207676163</v>
       </c>
       <c r="J7" t="n">
-        <v>16.6731753436693</v>
+        <v>14.98796247308802</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672928</v>
+        <v>24.62982646342612</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821368</v>
+        <v>31.51769812072542</v>
       </c>
       <c r="M7" t="n">
-        <v>36.9674119134486</v>
+        <v>33.2309935609434</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437516</v>
+        <v>32.44083480898687</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715705</v>
+        <v>29.96436164736694</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925245</v>
+        <v>25.63968789275595</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706287</v>
+        <v>17.75159088846776</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633513</v>
+        <v>9.532012651651453</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009392</v>
+        <v>3.694473969513917</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889105</v>
+        <v>0.9057917400477523</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156306</v>
+        <v>0.01156329880912026</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33195,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33271,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34378,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34399,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,7 +34456,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34527,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34539,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>204.0920904142116</v>
       </c>
       <c r="M3" t="n">
-        <v>192.6683686573557</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412695</v>
+        <v>28.16237059201043</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953722</v>
+        <v>164.1725419109939</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693394</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153395</v>
+        <v>302.1523988337561</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241548</v>
+        <v>292.2617450366725</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323542</v>
+        <v>230.3303996539462</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806762</v>
+        <v>158.5267349926789</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175353</v>
+        <v>41.04519843414962</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.8298023876164</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209413</v>
+        <v>130.4282760844481</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530425</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441545</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441545</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="O6" t="n">
-        <v>29.6935462843643</v>
+        <v>311.4291731033529</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688434</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.12965706084643</v>
+        <v>2.360334637543264</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852982</v>
+        <v>59.10772338104156</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528919</v>
+        <v>72.81487052278399</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360374</v>
+        <v>76.57300718821546</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119673</v>
+        <v>54.54948956140662</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414594</v>
+        <v>22.91824715764944</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318327</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145236</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507416</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36843,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713064</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789771</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178474</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745869</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38026,19 +38028,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>57.74822800113467</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38181,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
